--- a/Dynamics of Atmospheric Flight/Project_PartIV/Dynamic Mode Glider/Version_2_Glider.xlsx
+++ b/Dynamics of Atmospheric Flight/Project_PartIV/Dynamic Mode Glider/Version_2_Glider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">A19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launch Velocity</t>
   </si>
   <si>
     <t xml:space="preserve">A20</t>
@@ -727,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E105" activeCellId="0" sqref="E105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,32 +1606,38 @@
       <c r="A100" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="D100" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>15.8573</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>9.03</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>12.5635</v>
@@ -1636,7 +1645,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>8.7112</v>
@@ -1647,7 +1656,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
